--- a/biology/Médecine/Maladie_de_Charcot-Marie-Tooth_de_type_AR-CMT2/Maladie_de_Charcot-Marie-Tooth_de_type_AR-CMT2.xlsx
+++ b/biology/Médecine/Maladie_de_Charcot-Marie-Tooth_de_type_AR-CMT2/Maladie_de_Charcot-Marie-Tooth_de_type_AR-CMT2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les maladies de Charcot-Marie-Tooth de type AR-CMT2 forment un sous-groupe des maladies de Charcot-Marie-Tooth. Elles se caractérisent par une atteinte de l'axone et leur transmission génétique est autosomique récessive.
 </t>
@@ -511,7 +523,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tableau ci-dessous résume les différents sous-types à transmission dominante, la fréquence, les gènes, les chromosomes et les protéines impliqués dans la maladie de Charcot-Marie-Tooth de type AR-CMT2.
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -595,6 +613,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -621,6 +641,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -647,6 +669,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -672,10 +696,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">CMT-Mag 90, janvier-février-mars 2013, p. 6
-(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [1]
+(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine                     </t>
         </is>
       </c>
